--- a/TrProjectDemo/src/test/resources/testData.xlsx
+++ b/TrProjectDemo/src/test/resources/testData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CDBAA5C8-6511-4648-AF86-84AB2AB6545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D7CB6DFE-D6A7-472A-A073-A50F3125AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{575FDDE3-B12A-4CB7-8EB8-9396E6E2D88B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{575FDDE3-B12A-4CB7-8EB8-9396E6E2D88B}"/>
   </bookViews>
   <sheets>
     <sheet name="logInPage" sheetId="1" r:id="rId1"/>
@@ -17,26 +17,17 @@
     <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>UserName</t>
   </si>
@@ -87,6 +78,18 @@
   </si>
   <si>
     <t>sulfath</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>50% discount is ON</t>
+  </si>
+  <si>
+    <t>editedNews</t>
+  </si>
+  <si>
+    <t>clearance sale Is ON</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588890E5-3122-4C49-B478-E4A6312707C4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,6 +552,8 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C7E2C4F4-7503-472A-B0CE-23FB84892C30}"/>
@@ -607,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B47686-07C5-439E-B842-6CFE3AFD6058}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,15 +664,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C26C09-A160-42C3-94AA-AFA42492D3CF}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -677,8 +682,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -687,6 +698,12 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
